--- a/Docs/Materials/BOM-LAF.xlsx
+++ b/Docs/Materials/BOM-LAF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golde\OneDrive\Documents\Github\C1-Laminar-Air-Flow-Reciculation\Docs\Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0085E5D1-7710-45DC-8FCC-A68F32B7458D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD83407-2A58-4027-8432-9DFE8D16D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,13 +219,13 @@
     <t>1.5 in 10 Color, 2.5 in 3 Color - Label Pack</t>
   </si>
   <si>
-    <t>FloXact™-R160</t>
-  </si>
-  <si>
     <t>PS1500</t>
   </si>
   <si>
     <t>DPT-Flow_x0002_1000-AZ-D</t>
+  </si>
+  <si>
+    <t>FloXact™-L400</t>
   </si>
 </sst>
 </file>
@@ -865,262 +865,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Trebuchet MS"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1241,6 +985,262 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Trebuchet MS"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1434,19 +1434,19 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A10:M24" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="37" tableBorderDxfId="38">
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Part #" dataDxfId="25" totalsRowDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Part Name" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Description" dataDxfId="23" totalsRowDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Brand" dataDxfId="22" totalsRowDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Dimentions" dataDxfId="21" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Revision" dataDxfId="20" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Qty" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="18" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{412E83EF-06E5-433D-9BEC-93AFDE82E27C}" name="Link" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Picture" dataDxfId="15" totalsRowDxfId="2" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Unit Cost" dataDxfId="14" totalsRowDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cost (one sys)" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Part #" dataDxfId="36" totalsRowDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Part Name" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Description" dataDxfId="34" totalsRowDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Brand" dataDxfId="33" totalsRowDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Dimentions" dataDxfId="32" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Revision" dataDxfId="31" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Qty" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="29" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{412E83EF-06E5-433D-9BEC-93AFDE82E27C}" name="Link" dataDxfId="28" totalsRowDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="27" totalsRowDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Picture" dataDxfId="26" totalsRowDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Unit Cost" dataDxfId="25" totalsRowDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cost (one sys)" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Cost]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1455,22 +1455,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98A2CE55-4B91-4744-A6ED-AA07BF780AC4}" name="Table3" displayName="Table3" ref="B3:C8" totalsRowShown="0" headerRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98A2CE55-4B91-4744-A6ED-AA07BF780AC4}" name="Table3" displayName="Table3" ref="B3:C8" totalsRowShown="0" headerRowBorderDxfId="23">
   <autoFilter ref="B3:C8" xr:uid="{98A2CE55-4B91-4744-A6ED-AA07BF780AC4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4B9416CE-500F-4E70-9B6C-897F6CCF08B3}" name="Assembly Name :" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{3D8A2D8D-A693-435F-A884-F09A8268E2D0}" name="Laminar Air Flow Recirculation Unit" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{4B9416CE-500F-4E70-9B6C-897F6CCF08B3}" name="Assembly Name :" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{3D8A2D8D-A693-435F-A884-F09A8268E2D0}" name="Laminar Air Flow Recirculation Unit" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A6:C26" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A6:C26" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Revision" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Revision Summary" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Approval Date" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Revision" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Revision Summary" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Approval Date" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1709,7 +1709,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1948,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>32</v>
@@ -1982,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>33</v>
@@ -2016,7 +2016,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>32</v>
